--- a/biology/Botanique/Promenades_de_Reims/Promenades_de_Reims.xlsx
+++ b/biology/Botanique/Promenades_de_Reims/Promenades_de_Reims.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Promenades sont un espace vert de Reims, en France. Elles sont constituées des Basses Promenades et des Hautes Promenades (rebaptisées Promenades Jean-Louis Schneiter en 2016[1]), les deux étant séparées par le Square Colbert.
+Les Promenades sont un espace vert de Reims, en France. Elles sont constituées des Basses Promenades et des Hautes Promenades (rebaptisées Promenades Jean-Louis Schneiter en 2016), les deux étant séparées par le Square Colbert.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espace allant de la Vesle à la place de la République a été gagné à partir de 1733 au nord des remparts de Reims. Lors des travaux de mise en valeur du site furent découverts, au milieu du XIXe siècle, une villa à hypocauste et la porte Mars tout juste dégagée du rempart. Aux Basses-Promenades fut mis au jour un habitat avec sépultures qui était occupé du Ier siècle jusqu'à l'antiquité. Elles ont connu un grand remaniement lors de l'arrivée du chemin de fer avec la création de la gare de Reims. La fontaine Bartholdi fut détruite à la suite des dégâts de la Grande Guerre et le kiosque à musique qui se trouve dans le parc de la Patte-d'oie.
 			Monument un 8 mai,
@@ -551,7 +565,9 @@
           <t>Images anciennes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Partie hautes, en 1844 sur le
@@ -586,7 +602,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Promenades sont entourées des voies suivantes : boulevard du Général-Leclerc, boulevard Louis-Roederer, boulevard Louis-Foch et le boulevard Joffre. Une piste cyclable y est présente, sauf au niveau du square Colbert.
 </t>
